--- a/angular-demo/src/i18n/PublicVersion_Localization.xlsx
+++ b/angular-demo/src/i18n/PublicVersion_Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Desktop\Louis\NeverGiveUp\angular-demo\src\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7840A50-8DAB-4B80-9FFB-1A0E46E12308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77A053A-2398-4FC7-B913-E7710BF64B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="多國字串表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="139">
   <si>
     <t>CN</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -317,13 +317,186 @@
   </si>
   <si>
     <t>LEDOFF</t>
+  </si>
+  <si>
+    <t>GloriousMode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glorious Mode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOOSE MODIFIER?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOOSEMODIFIER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResettoDefault</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset to Default</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PollingRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polling Rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Calculator</t>
+  </si>
+  <si>
+    <t>My Computer</t>
+  </si>
+  <si>
+    <t>Explorer</t>
+  </si>
+  <si>
+    <t>WWW Home</t>
+  </si>
+  <si>
+    <t>WWW Refresh</t>
+  </si>
+  <si>
+    <t>WWW Stop</t>
+  </si>
+  <si>
+    <t>WWW Back</t>
+  </si>
+  <si>
+    <t>WWW Forward</t>
+  </si>
+  <si>
+    <t>WWW Search</t>
+  </si>
+  <si>
+    <t>BROWSE</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>SELECTMACRO</t>
+  </si>
+  <si>
+    <t>NAMEYOURMACRO</t>
+  </si>
+  <si>
+    <t>SELECTTYPEOFMACRO</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>IMPORTMACRO</t>
+  </si>
+  <si>
+    <t>EXPORTMACRO</t>
+  </si>
+  <si>
+    <t>DELETEMACRO</t>
+  </si>
+  <si>
+    <t>NoRepeat</t>
+  </si>
+  <si>
+    <t>Toggle</t>
+  </si>
+  <si>
+    <t>WhilePressed</t>
+  </si>
+  <si>
+    <t>NUMBERS</t>
+  </si>
+  <si>
+    <t>MODIFIERS</t>
+  </si>
+  <si>
+    <t>SIDE LIGHT</t>
+  </si>
+  <si>
+    <t>QUICKKEYSELECTION</t>
+  </si>
+  <si>
+    <t>Color Layout Editor</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Wave#1</t>
+  </si>
+  <si>
+    <t>Wave#2</t>
+  </si>
+  <si>
+    <t>Breathing</t>
+  </si>
+  <si>
+    <t>Matrix2</t>
+  </si>
+  <si>
+    <t>Matrix3</t>
+  </si>
+  <si>
+    <t>SINGLE KEY / COMBINATION KEY</t>
+  </si>
+  <si>
+    <t>125Hz</t>
+  </si>
+  <si>
+    <t>250Hz</t>
+  </si>
+  <si>
+    <t>500Hz</t>
+  </si>
+  <si>
+    <t>1000Hz</t>
+  </si>
+  <si>
+    <t>IMPORT PROFILE</t>
+  </si>
+  <si>
+    <t>EXPORT PROFILE</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>Keybinding</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>PROFILE1</t>
+  </si>
+  <si>
+    <t>PROFILE2</t>
+  </si>
+  <si>
+    <t>PROFILE3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -385,6 +558,23 @@
       <color rgb="FFFF0000"/>
       <name val="SimSun"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -394,27 +584,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -423,7 +598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,9 +617,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -452,6 +624,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -770,16 +951,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29" style="8" customWidth="1"/>
     <col min="2" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="47.25" style="5"/>
   </cols>
   <sheetData>
@@ -1416,170 +1597,726 @@
       <c r="E42"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="E43" s="6"/>
+      <c r="A43" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="E44" s="6"/>
+      <c r="A44" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="E45" s="6"/>
+      <c r="A45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="A46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
+      <c r="A47" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="A48" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+      <c r="A50" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="D51" s="1"/>
+      <c r="A51" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="D52" s="1"/>
+      <c r="A52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
+      <c r="A53" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
+      <c r="A54" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
+      <c r="A55" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
+      <c r="A56" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
+      <c r="A57" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
+      <c r="A59" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
+      <c r="A61" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
+      <c r="A62" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
+      <c r="A63" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
@@ -1799,7 +2536,7 @@
       <c r="A167" s="5"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="8"/>
+      <c r="A168" s="7"/>
       <c r="D168" s="1"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -1808,9 +2545,9 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>

--- a/angular-demo/src/i18n/PublicVersion_Localization.xlsx
+++ b/angular-demo/src/i18n/PublicVersion_Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Desktop\Louis\NeverGiveUp\angular-demo\src\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77A053A-2398-4FC7-B913-E7710BF64B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08419137-4060-4C21-910A-10AA8D4B071A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="141">
   <si>
     <t>CN</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -490,6 +490,12 @@
   </si>
   <si>
     <t>PROFILE3</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Back</t>
   </si>
 </sst>
 </file>
@@ -951,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2311,10 +2317,32 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
+      <c r="A94" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
+      <c r="A95" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>

--- a/angular-demo/src/i18n/PublicVersion_Localization.xlsx
+++ b/angular-demo/src/i18n/PublicVersion_Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Desktop\Louis\NeverGiveUp\angular-demo\src\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08419137-4060-4C21-910A-10AA8D4B071A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4ED19D-13F7-4252-A64B-8BA2FF8D3CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="150">
   <si>
     <t>CN</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -66,21 +66,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Profilecycle up</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profilecycle down</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Layercycleup</t>
   </si>
   <si>
-    <t>Layercycle up</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Next</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -131,20 +119,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SELECTSHORTCUTTYPE</t>
-  </si>
-  <si>
-    <t>SELECT SHORTCUT TYPE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Layercycledown</t>
   </si>
   <si>
-    <t>Layercycle down</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Left button</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -218,105 +195,101 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Heartbeat  Sensor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profilecycleup</t>
+  </si>
+  <si>
+    <t>Profilecycledown</t>
+  </si>
+  <si>
+    <t>Mediaplayer</t>
+  </si>
+  <si>
+    <t>Volumeup</t>
+  </si>
+  <si>
+    <t>Volumedown</t>
+  </si>
+  <si>
+    <t>Leftbutton</t>
+  </si>
+  <si>
+    <t>Rightbutton</t>
+  </si>
+  <si>
+    <t>Scrolldown</t>
+  </si>
+  <si>
+    <t>AcidMode</t>
+  </si>
+  <si>
+    <t>參數名稱</t>
+  </si>
+  <si>
+    <t>Playpause</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Mute</t>
+  </si>
+  <si>
+    <t>NextSong</t>
+  </si>
+  <si>
+    <t>PreviousSong</t>
+  </si>
+  <si>
+    <t>SpiralingWave</t>
+  </si>
+  <si>
+    <t>NormallyOn</t>
+  </si>
+  <si>
+    <t>RippleGraff</t>
+  </si>
+  <si>
+    <t>PassWithoutTrace</t>
+  </si>
+  <si>
+    <t>FastRunWithoutTrace</t>
+  </si>
+  <si>
+    <t>Matrix 2</t>
+  </si>
+  <si>
+    <t>Matrix 3</t>
+  </si>
+  <si>
+    <t>Rainbow</t>
+  </si>
+  <si>
+    <t>HeartbeatSensor</t>
+  </si>
+  <si>
+    <t>DigitTimes</t>
+  </si>
+  <si>
+    <t>Kamehemeha</t>
+  </si>
+  <si>
+    <t>Pingpong</t>
+  </si>
+  <si>
+    <t>Surmount</t>
+  </si>
+  <si>
     <t>LEDOFF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heartbeat  Sensor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Profilecycleup</t>
-  </si>
-  <si>
-    <t>Profilecycledown</t>
-  </si>
-  <si>
-    <t>Mediaplayer</t>
-  </si>
-  <si>
-    <t>Volumeup</t>
-  </si>
-  <si>
-    <t>Volumedown</t>
-  </si>
-  <si>
-    <t>Leftbutton</t>
-  </si>
-  <si>
-    <t>Rightbutton</t>
-  </si>
-  <si>
-    <t>Scrolldown</t>
-  </si>
-  <si>
-    <t>AcidMode</t>
-  </si>
-  <si>
-    <t>參數名稱</t>
-  </si>
-  <si>
-    <t>Playpause</t>
-  </si>
-  <si>
-    <t>Next</t>
-  </si>
-  <si>
-    <t>Previous</t>
-  </si>
-  <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <t>Mute</t>
-  </si>
-  <si>
-    <t>NextSong</t>
-  </si>
-  <si>
-    <t>PreviousSong</t>
-  </si>
-  <si>
-    <t>SpiralingWave</t>
-  </si>
-  <si>
-    <t>NormallyOn</t>
-  </si>
-  <si>
-    <t>RippleGraff</t>
-  </si>
-  <si>
-    <t>PassWithoutTrace</t>
-  </si>
-  <si>
-    <t>FastRunWithoutTrace</t>
-  </si>
-  <si>
-    <t>Matrix 2</t>
-  </si>
-  <si>
-    <t>Matrix 3</t>
-  </si>
-  <si>
-    <t>Rainbow</t>
-  </si>
-  <si>
-    <t>HeartbeatSensor</t>
-  </si>
-  <si>
-    <t>DigitTimes</t>
-  </si>
-  <si>
-    <t>Kamehemeha</t>
-  </si>
-  <si>
-    <t>Pingpong</t>
-  </si>
-  <si>
-    <t>Surmount</t>
-  </si>
-  <si>
-    <t>LEDOFF</t>
   </si>
   <si>
     <t>GloriousMode</t>
@@ -387,115 +360,181 @@
     <t>Windows</t>
   </si>
   <si>
-    <t>SELECTMACRO</t>
+    <t>SELECTTYPEOFMACRO</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>IMPORTMACRO</t>
+  </si>
+  <si>
+    <t>EXPORTMACRO</t>
+  </si>
+  <si>
+    <t>DELETEMACRO</t>
+  </si>
+  <si>
+    <t>NoRepeat</t>
+  </si>
+  <si>
+    <t>Toggle</t>
+  </si>
+  <si>
+    <t>WhilePressed</t>
+  </si>
+  <si>
+    <t>NUMBERS</t>
+  </si>
+  <si>
+    <t>MODIFIERS</t>
+  </si>
+  <si>
+    <t>SIDE LIGHT</t>
+  </si>
+  <si>
+    <t>QUICKKEYSELECTION</t>
+  </si>
+  <si>
+    <t>Color Layout Editor</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Wave#1</t>
+  </si>
+  <si>
+    <t>Wave#2</t>
+  </si>
+  <si>
+    <t>Breathing</t>
+  </si>
+  <si>
+    <t>Matrix2</t>
+  </si>
+  <si>
+    <t>Matrix3</t>
+  </si>
+  <si>
+    <t>SINGLE KEY / COMBINATION KEY</t>
+  </si>
+  <si>
+    <t>125Hz</t>
+  </si>
+  <si>
+    <t>250Hz</t>
+  </si>
+  <si>
+    <t>500Hz</t>
+  </si>
+  <si>
+    <t>1000Hz</t>
+  </si>
+  <si>
+    <t>IMPORT PROFILE</t>
+  </si>
+  <si>
+    <t>EXPORT PROFILE</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>Keybinding</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>PROFILE1</t>
+  </si>
+  <si>
+    <t>PROFILE2</t>
+  </si>
+  <si>
+    <t>PROFILE3</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>QUICK KEY SELECTION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profile cycle up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profile cycle down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layer cycle up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layer cycle down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NAMEYOURMACRO</t>
-  </si>
-  <si>
-    <t>SELECTTYPEOFMACRO</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>IMPORTMACRO</t>
-  </si>
-  <si>
-    <t>EXPORTMACRO</t>
-  </si>
-  <si>
-    <t>DELETEMACRO</t>
-  </si>
-  <si>
-    <t>NoRepeat</t>
-  </si>
-  <si>
-    <t>Toggle</t>
-  </si>
-  <si>
-    <t>WhilePressed</t>
-  </si>
-  <si>
-    <t>NUMBERS</t>
-  </si>
-  <si>
-    <t>MODIFIERS</t>
-  </si>
-  <si>
-    <t>SIDE LIGHT</t>
-  </si>
-  <si>
-    <t>QUICKKEYSELECTION</t>
-  </si>
-  <si>
-    <t>Color Layout Editor</t>
-  </si>
-  <si>
-    <t>Disabled</t>
-  </si>
-  <si>
-    <t>Wave#1</t>
-  </si>
-  <si>
-    <t>Wave#2</t>
-  </si>
-  <si>
-    <t>Breathing</t>
-  </si>
-  <si>
-    <t>Matrix2</t>
-  </si>
-  <si>
-    <t>Matrix3</t>
-  </si>
-  <si>
-    <t>SINGLE KEY / COMBINATION KEY</t>
-  </si>
-  <si>
-    <t>125Hz</t>
-  </si>
-  <si>
-    <t>250Hz</t>
-  </si>
-  <si>
-    <t>500Hz</t>
-  </si>
-  <si>
-    <t>1000Hz</t>
-  </si>
-  <si>
-    <t>IMPORT PROFILE</t>
-  </si>
-  <si>
-    <t>EXPORT PROFILE</t>
-  </si>
-  <si>
-    <t>Lighting</t>
-  </si>
-  <si>
-    <t>Keybinding</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>SAVE</t>
-  </si>
-  <si>
-    <t>PROFILE1</t>
-  </si>
-  <si>
-    <t>PROFILE2</t>
-  </si>
-  <si>
-    <t>PROFILE3</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>Back</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAMEYOURLAYOUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME YOUR LAYOUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED OFF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Repeat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeat While holding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT TYPE OF MACRO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME  YOUR  MACRO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME  YOUR  MACRO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME  YOUR  MACRO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPORT MACRO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPORT MACRO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE MACRO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -955,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:D95"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -972,7 +1011,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1004,157 +1043,157 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1169,1179 +1208,1178 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E29"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E30"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E31"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E33"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E34"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E35"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E36"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E37"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E38"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="E39"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E40"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>86</v>
+      <c r="C44" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>137</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>138</v>
+      <c r="B93" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="C94" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2392,10 +2430,10 @@
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
     </row>
-    <row r="113" spans="1:1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
@@ -2443,102 +2481,102 @@
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
-      <c r="D146" s="1"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
-      <c r="D147" s="1"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
     </row>
-    <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
     </row>
-    <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
     </row>
-    <row r="158" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -2549,41 +2587,44 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
+      <c r="D163" s="3"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="5"/>
+      <c r="A165" s="7"/>
+      <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
-      <c r="D166" s="3"/>
+      <c r="D166" s="1"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="7"/>
-      <c r="D168" s="1"/>
+      <c r="A168" s="5"/>
+      <c r="D168" s="3"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
-      <c r="D169" s="1"/>
+      <c r="D169" s="3"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
+      <c r="D170" s="1"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
-      <c r="D171" s="3"/>
+      <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
-      <c r="D172" s="3"/>
+      <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
@@ -2598,41 +2639,29 @@
       <c r="D175" s="1"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="5"/>
-      <c r="D176" s="1"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="5"/>
-      <c r="D177" s="1"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="5"/>
-      <c r="D178" s="1"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
